--- a/Champion_data.xlsx
+++ b/Champion_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Drafting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C42714-41C3-429A-ADCA-3DA2E16AAD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0409F6-104C-4992-8B9C-3306E5EF4A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB1CD3CF-F952-4033-862C-06D69BEAE204}"/>
   </bookViews>
@@ -1039,11 +1039,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04099CF4-B3F4-42D6-8B27-3826C08EBFFA}">
   <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="O139" sqref="O139"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
